--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06893333333333333</v>
+        <v>1.029074</v>
       </c>
       <c r="N2">
-        <v>0.2068</v>
+        <v>3.087222</v>
       </c>
       <c r="O2">
-        <v>0.1074509547183595</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1074509547183595</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>10.34244235395555</v>
+        <v>174.855784811618</v>
       </c>
       <c r="R2">
-        <v>93.08198118559999</v>
+        <v>1573.702063304562</v>
       </c>
       <c r="S2">
-        <v>0.04461908808395496</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="T2">
-        <v>0.04461908808395496</v>
+        <v>0.4441184931734509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>68.382243</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>205.146729</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5101323333333333</v>
+        <v>1.029074</v>
       </c>
       <c r="N3">
-        <v>1.530397</v>
+        <v>3.087222</v>
       </c>
       <c r="O3">
-        <v>0.7951770732500641</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.7951770732500639</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>76.53792432865821</v>
+        <v>70.37038833298199</v>
       </c>
       <c r="R3">
-        <v>688.8413189579238</v>
+        <v>633.3334949968379</v>
       </c>
       <c r="S3">
-        <v>0.3301978653115107</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="T3">
-        <v>0.3301978653115106</v>
+        <v>0.1787346690539575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>159.823902</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06246733333333333</v>
+        <v>1.029074</v>
       </c>
       <c r="N4">
-        <v>0.187402</v>
+        <v>3.087222</v>
       </c>
       <c r="O4">
-        <v>0.09737197203157645</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.09737197203157644</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>9.372313259264887</v>
+        <v>54.82354070891598</v>
       </c>
       <c r="R4">
-        <v>84.35081933338398</v>
+        <v>493.4118663802439</v>
       </c>
       <c r="S4">
-        <v>0.04043378310014181</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="T4">
-        <v>0.0404337831001418</v>
+        <v>0.1392470275793778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,542 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.382243</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H5">
-        <v>205.146729</v>
+        <v>273.054848</v>
       </c>
       <c r="I5">
-        <v>0.1892604742946246</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J5">
-        <v>0.1892604742946246</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06893333333333333</v>
+        <v>1.029074</v>
       </c>
       <c r="N5">
-        <v>0.2068</v>
+        <v>3.087222</v>
       </c>
       <c r="O5">
-        <v>0.1074509547183595</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.1074509547183595</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>4.7138159508</v>
+        <v>93.66454821691731</v>
       </c>
       <c r="R5">
-        <v>42.4243435572</v>
+        <v>842.9809339522559</v>
       </c>
       <c r="S5">
-        <v>0.02033621865340696</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="T5">
-        <v>0.02033621865340695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>68.382243</v>
-      </c>
-      <c r="H6">
-        <v>205.146729</v>
-      </c>
-      <c r="I6">
-        <v>0.1892604742946246</v>
-      </c>
-      <c r="J6">
-        <v>0.1892604742946246</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.5101323333333333</v>
-      </c>
-      <c r="N6">
-        <v>1.530397</v>
-      </c>
-      <c r="O6">
-        <v>0.7951770732500641</v>
-      </c>
-      <c r="P6">
-        <v>0.7951770732500639</v>
-      </c>
-      <c r="Q6">
-        <v>34.883993180157</v>
-      </c>
-      <c r="R6">
-        <v>313.9559386214129</v>
-      </c>
-      <c r="S6">
-        <v>0.1504955900315186</v>
-      </c>
-      <c r="T6">
-        <v>0.1504955900315185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>68.382243</v>
-      </c>
-      <c r="H7">
-        <v>205.146729</v>
-      </c>
-      <c r="I7">
-        <v>0.1892604742946246</v>
-      </c>
-      <c r="J7">
-        <v>0.1892604742946246</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.06246733333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.187402</v>
-      </c>
-      <c r="O7">
-        <v>0.09737197203157645</v>
-      </c>
-      <c r="P7">
-        <v>0.09737197203157644</v>
-      </c>
-      <c r="Q7">
-        <v>4.271656367562</v>
-      </c>
-      <c r="R7">
-        <v>38.444907308058</v>
-      </c>
-      <c r="S7">
-        <v>0.01842866560969908</v>
-      </c>
-      <c r="T7">
-        <v>0.01842866560969908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>38.15794</v>
-      </c>
-      <c r="H8">
-        <v>114.47382</v>
-      </c>
-      <c r="I8">
-        <v>0.105609139239639</v>
-      </c>
-      <c r="J8">
-        <v>0.105609139239639</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.06893333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.2068</v>
-      </c>
-      <c r="O8">
-        <v>0.1074509547183595</v>
-      </c>
-      <c r="P8">
-        <v>0.1074509547183595</v>
-      </c>
-      <c r="Q8">
-        <v>2.630353997333334</v>
-      </c>
-      <c r="R8">
-        <v>23.673185976</v>
-      </c>
-      <c r="S8">
-        <v>0.01134780283828338</v>
-      </c>
-      <c r="T8">
-        <v>0.01134780283828337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>38.15794</v>
-      </c>
-      <c r="H9">
-        <v>114.47382</v>
-      </c>
-      <c r="I9">
-        <v>0.105609139239639</v>
-      </c>
-      <c r="J9">
-        <v>0.105609139239639</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.5101323333333333</v>
-      </c>
-      <c r="N9">
-        <v>1.530397</v>
-      </c>
-      <c r="O9">
-        <v>0.7951770732500641</v>
-      </c>
-      <c r="P9">
-        <v>0.7951770732500639</v>
-      </c>
-      <c r="Q9">
-        <v>19.46559896739333</v>
-      </c>
-      <c r="R9">
-        <v>175.19039070654</v>
-      </c>
-      <c r="S9">
-        <v>0.08397796624903464</v>
-      </c>
-      <c r="T9">
-        <v>0.0839779662490346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>38.15794</v>
-      </c>
-      <c r="H10">
-        <v>114.47382</v>
-      </c>
-      <c r="I10">
-        <v>0.105609139239639</v>
-      </c>
-      <c r="J10">
-        <v>0.105609139239639</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.06246733333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.187402</v>
-      </c>
-      <c r="O10">
-        <v>0.09737197203157645</v>
-      </c>
-      <c r="P10">
-        <v>0.09737197203157644</v>
-      </c>
-      <c r="Q10">
-        <v>2.383624757293333</v>
-      </c>
-      <c r="R10">
-        <v>21.45262281564</v>
-      </c>
-      <c r="S10">
-        <v>0.01028337015232099</v>
-      </c>
-      <c r="T10">
-        <v>0.01028337015232099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>104.737245</v>
-      </c>
-      <c r="H11">
-        <v>314.211735</v>
-      </c>
-      <c r="I11">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J11">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.06893333333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.2068</v>
-      </c>
-      <c r="O11">
-        <v>0.1074509547183595</v>
-      </c>
-      <c r="P11">
-        <v>0.1074509547183595</v>
-      </c>
-      <c r="Q11">
-        <v>7.219887422000001</v>
-      </c>
-      <c r="R11">
-        <v>64.97898679800001</v>
-      </c>
-      <c r="S11">
-        <v>0.03114784514271424</v>
-      </c>
-      <c r="T11">
-        <v>0.03114784514271423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>104.737245</v>
-      </c>
-      <c r="H12">
-        <v>314.211735</v>
-      </c>
-      <c r="I12">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J12">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.5101323333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.530397</v>
-      </c>
-      <c r="O12">
-        <v>0.7951770732500641</v>
-      </c>
-      <c r="P12">
-        <v>0.7951770732500639</v>
-      </c>
-      <c r="Q12">
-        <v>53.42985517875501</v>
-      </c>
-      <c r="R12">
-        <v>480.868696608795</v>
-      </c>
-      <c r="S12">
-        <v>0.2305056516580002</v>
-      </c>
-      <c r="T12">
-        <v>0.2305056516580001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>104.737245</v>
-      </c>
-      <c r="H13">
-        <v>314.211735</v>
-      </c>
-      <c r="I13">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J13">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.06246733333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.187402</v>
-      </c>
-      <c r="O13">
-        <v>0.09737197203157645</v>
-      </c>
-      <c r="P13">
-        <v>0.09737197203157644</v>
-      </c>
-      <c r="Q13">
-        <v>6.54265639583</v>
-      </c>
-      <c r="R13">
-        <v>58.88390756247</v>
-      </c>
-      <c r="S13">
-        <v>0.02822615316941457</v>
-      </c>
-      <c r="T13">
-        <v>0.02822615316941456</v>
+        <v>0.2378998101932138</v>
       </c>
     </row>
   </sheetData>
